--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2715987.003929175</v>
+        <v>-2718626.429406645</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>284.31854104312</v>
+        <v>284.3185410431195</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.0576312245505</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.09092032742841</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,10 +896,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.3749514242886</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>96.44868378079187</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>134.4415385849327</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>60.105140864292</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>160.5958651236758</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>193.7568625666151</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>48.99533837730304</v>
       </c>
       <c r="Y10" t="n">
-        <v>26.66925886831028</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187871</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,7 +1531,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428364</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833872</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892428173</v>
+        <v>20.88994825141623</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428149</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892444</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596495</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833875</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012117</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308922</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541843</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652625</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
@@ -2722,16 +2722,16 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308921</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541837</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652653</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2962,13 +2962,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002295</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652616</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808203</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541843</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541836</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,7 +3913,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
         <v>56.98118882652582</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>401.7699066636965</v>
+        <v>401.769906663696</v>
       </c>
       <c r="C2" t="n">
         <v>114.5794611655957</v>
@@ -4325,22 +4325,22 @@
         <v>114.5794611655957</v>
       </c>
       <c r="I2" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="J2" t="n">
-        <v>210.1777629739681</v>
+        <v>210.1777629739678</v>
       </c>
       <c r="K2" t="n">
-        <v>491.4767306579187</v>
+        <v>491.4767306579183</v>
       </c>
       <c r="L2" t="n">
-        <v>877.3547360840312</v>
+        <v>877.3547360840303</v>
       </c>
       <c r="M2" t="n">
-        <v>1338.387805296445</v>
+        <v>1338.387805296444</v>
       </c>
       <c r="N2" t="n">
-        <v>1811.494679942782</v>
+        <v>1811.494679942781</v>
       </c>
       <c r="O2" t="n">
         <v>2244.900824692379</v>
@@ -4352,28 +4352,28 @@
         <v>2784.001464928706</v>
       </c>
       <c r="R2" t="n">
-        <v>2817.082700554677</v>
+        <v>2817.082700554676</v>
       </c>
       <c r="S2" t="n">
         <v>2697.192403003823</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.370557690241</v>
+        <v>2489.37055769024</v>
       </c>
       <c r="U2" t="n">
-        <v>2235.806379578395</v>
+        <v>2235.806379578394</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.743492234824</v>
+        <v>1904.743492234823</v>
       </c>
       <c r="W2" t="n">
-        <v>1551.97483696471</v>
+        <v>1551.974836964709</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.50907870363</v>
+        <v>1178.509078703629</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.3697467278182</v>
+        <v>788.3697467278178</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>165.5600913588484</v>
       </c>
       <c r="H3" t="n">
-        <v>72.88132792194854</v>
+        <v>72.88132792194853</v>
       </c>
       <c r="I3" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="J3" t="n">
         <v>129.1475396695374</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.34165401109353</v>
+        <v>204.2547475934867</v>
       </c>
       <c r="C4" t="n">
-        <v>56.34165401109353</v>
+        <v>204.2547475934867</v>
       </c>
       <c r="D4" t="n">
-        <v>56.34165401109353</v>
+        <v>204.2547475934866</v>
       </c>
       <c r="E4" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="F4" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="G4" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="H4" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="I4" t="n">
-        <v>56.34165401109353</v>
+        <v>56.34165401109352</v>
       </c>
       <c r="J4" t="n">
-        <v>88.37025097505887</v>
+        <v>88.37025097505898</v>
       </c>
       <c r="K4" t="n">
-        <v>270.8399112966549</v>
+        <v>270.8399112966552</v>
       </c>
       <c r="L4" t="n">
-        <v>559.8646890059853</v>
+        <v>559.8646890059854</v>
       </c>
       <c r="M4" t="n">
-        <v>874.9899159308712</v>
+        <v>874.9899159308713</v>
       </c>
       <c r="N4" t="n">
         <v>1188.056785720851</v>
@@ -4507,7 +4507,7 @@
         <v>1671.41614150354</v>
       </c>
       <c r="Q4" t="n">
-        <v>1733.517994704577</v>
+        <v>1733.517994704578</v>
       </c>
       <c r="R4" t="n">
         <v>1635.190938163087</v>
@@ -4519,19 +4519,19 @@
         <v>1217.637875978211</v>
       </c>
       <c r="U4" t="n">
-        <v>928.5247018665325</v>
+        <v>928.524701866533</v>
       </c>
       <c r="V4" t="n">
-        <v>673.8402136606456</v>
+        <v>673.8402136606461</v>
       </c>
       <c r="W4" t="n">
-        <v>384.423043623685</v>
+        <v>385.9032124237264</v>
       </c>
       <c r="X4" t="n">
-        <v>156.4334927256677</v>
+        <v>385.9032124237264</v>
       </c>
       <c r="Y4" t="n">
-        <v>56.34165401109353</v>
+        <v>385.9032124237264</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1636.624422581789</v>
+        <v>1458.811090838974</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>704.0603213003183</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>293.0744165107107</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>282.0423703961113</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3117.892240226373</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2786.829352882803</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2786.829352882803</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2413.363594621723</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>2023.224262645911</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
         <v>2096.912393410638</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>443.0505103572855</v>
+        <v>370.0144869816389</v>
       </c>
       <c r="C7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D7" t="n">
-        <v>274.1143274293786</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>845.4915543310553</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>624.6989751875252</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1572.164517693149</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>979.2965659530255</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>568.310661163418</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4799,31 +4799,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3019.601150543726</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2688.538263200155</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2335.769607930041</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1962.303849668961</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1572.164517693149</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W10" t="n">
-        <v>970.0546934046018</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X10" t="n">
-        <v>742.0651425065845</v>
+        <v>763.0834407704886</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>542.2908616269584</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400733</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121663</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5200,49 +5200,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138431</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570313</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5279,25 +5279,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5464,7 +5464,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,7 +5510,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.192580311172</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121642</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>216.8470138298254</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5686,7 +5686,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400719</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C22" t="n">
-        <v>344.917417812165</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5911,7 +5911,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797742</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138418</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D25" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H25" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>198.094482495415</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>198.0944824954152</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6500,10 +6500,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384024</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
         <v>898.2659412311323</v>
@@ -6686,16 +6686,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6877,7 +6877,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931273</v>
@@ -6886,22 +6886,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6923,16 +6923,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.192580311172</v>
@@ -7020,7 +7020,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
         <v>680.0291294438176</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.555303634547</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7123,10 +7123,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7369,13 +7369,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7497,7 +7497,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,10 +7555,10 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>184.7035232280589</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,7 +7807,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>80.95435072788757</v>
+        <v>80.95435072788803</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,7 +22711,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.465367112040497</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>119.4937330246664</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409392872</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788518</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393062</v>
+        <v>127.7255247667961</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393086</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>43.72409101823391</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>63.36835372228781</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393041</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -26366,13 +26366,13 @@
         <v>1186172.826266607</v>
       </c>
       <c r="C3" t="n">
-        <v>135540.2139992233</v>
+        <v>135540.2139992237</v>
       </c>
       <c r="D3" t="n">
-        <v>1.765727120073279e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="J3" t="n">
-        <v>184268.196525982</v>
+        <v>184268.1965259819</v>
       </c>
       <c r="K3" t="n">
-        <v>32719.39465488816</v>
+        <v>32719.39465488828</v>
       </c>
       <c r="L3" t="n">
-        <v>1.438655772290076e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355118</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363183</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>18658.25315843009</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.01098815718</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680585</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26436,28 +26436,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>19767.83547989929</v>
+        <v>19767.8354798993</v>
       </c>
       <c r="J4" t="n">
         <v>19767.83547989929</v>
       </c>
       <c r="K4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="L4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19767.83547989928</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19767.8354798993</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19767.83547989928</v>
+      </c>
+      <c r="P4" t="n">
         <v>19767.83547989929</v>
-      </c>
-      <c r="L4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19767.83547989929</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19767.83547989928</v>
       </c>
     </row>
     <row r="5">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1302773.885454943</v>
+        <v>-1303238.182246967</v>
       </c>
       <c r="C6" t="n">
-        <v>-334438.1655487738</v>
+        <v>-334438.1655487741</v>
       </c>
       <c r="D6" t="n">
-        <v>-198897.9515495506</v>
+        <v>-198897.9515495504</v>
       </c>
       <c r="E6" t="n">
-        <v>-438311.9678480681</v>
+        <v>-438346.7057735038</v>
       </c>
       <c r="F6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="G6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="H6" t="n">
-        <v>-112899.5060407129</v>
+        <v>-112934.2439661486</v>
       </c>
       <c r="I6" t="n">
         <v>-142359.6693274465</v>
@@ -26546,10 +26546,10 @@
         <v>-307200.1478597966</v>
       </c>
       <c r="K6" t="n">
-        <v>-155651.3459887028</v>
+        <v>-155651.345988703</v>
       </c>
       <c r="L6" t="n">
-        <v>-122931.9513338148</v>
+        <v>-122931.9513338147</v>
       </c>
       <c r="M6" t="n">
         <v>-207986.9792693265</v>
@@ -26713,19 +26713,19 @@
         <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.28464749203974</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.270675138669</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203978</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>986.0343569483914</v>
       </c>
       <c r="C3" t="n">
-        <v>103.7423436449067</v>
+        <v>103.7423436449069</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.270675138669</v>
       </c>
       <c r="C4" t="n">
-        <v>127.1307802636231</v>
+        <v>127.1307802636236</v>
       </c>
       <c r="D4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.270675138669</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636231</v>
+        <v>127.1307802636236</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>704.2706751386692</v>
+        <v>704.270675138669</v>
       </c>
       <c r="K4" t="n">
-        <v>127.1307802636231</v>
+        <v>127.1307802636236</v>
       </c>
       <c r="L4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>81.23281296303188</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>154.5464881781101</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>32.80528251369512</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>86.32882178227717</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>250.3258605297776</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>10.16110757300504</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>176.7143170117341</v>
       </c>
       <c r="Y10" t="n">
-        <v>191.9153944837845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.940255363782247e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899094</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060454</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -36516,10 +36516,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K25" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37227,16 +37227,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980851</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O40" t="n">
         <v>397.5465471980851</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>91.80490927281522</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
